--- a/Tables/ControlledVocabularyForFields.xlsx
+++ b/Tables/ControlledVocabularyForFields.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB4D3D-B751-40EE-AC57-C690BD28EF7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5782B4F-8238-4488-94E4-0A0E07BADCA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C33AF73E-E038-4FF0-8E1B-9C96306A5BEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C33AF73E-E038-4FF0-8E1B-9C96306A5BEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="samplingProtocolCV" sheetId="1" r:id="rId1"/>
+    <sheet name="EnumDict" sheetId="2" r:id="rId1"/>
     <sheet name="samplingProtocolCW" sheetId="3" r:id="rId2"/>
-    <sheet name="samplingDesignTypeCV" sheetId="2" r:id="rId3"/>
+    <sheet name="samplingProtocolCV" sheetId="1" r:id="rId3"/>
     <sheet name="samplingDesignTypeCW" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>termID</t>
   </si>
@@ -202,6 +202,48 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>tablename</t>
+  </si>
+  <si>
+    <t>attributename &lt;attrlab1&gt;</t>
+  </si>
+  <si>
+    <t>category &lt;edomv&gt;</t>
+  </si>
+  <si>
+    <t>categorydef &lt;edomvd&gt;</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>&lt;edomvds&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampingProtocol </t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>fieldNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Flow (Dry) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow (Whole Reach) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tablename </t>
   </si>
 </sst>
 </file>
@@ -555,48 +597,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E6AACB-8606-4100-8AD4-CF14E6764194}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7673F2A-4F0F-4F89-8076-BA739B2D4FCB}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="A8" sqref="A8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -604,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96F195-400C-4397-94DE-FB188FF2186F}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -639,6 +765,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -656,6 +785,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -673,6 +805,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -690,6 +825,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -707,6 +845,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -727,6 +868,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -747,6 +891,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -767,6 +914,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -784,6 +934,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -801,6 +954,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -821,6 +977,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -841,6 +1000,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -861,6 +1023,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -883,17 +1048,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7673F2A-4F0F-4F89-8076-BA739B2D4FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E6AACB-8606-4100-8AD4-CF14E6764194}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -909,30 +1074,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -940,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BC79C4-3C5B-4D5D-A0C2-861EA30DE21F}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
